--- a/REGULAR/OJT/MARTINEZ, BELEN.xlsx
+++ b/REGULAR/OJT/MARTINEZ, BELEN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="430">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3809,10 +3809,10 @@
   </sheetPr>
   <dimension ref="A2:K720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3285" topLeftCell="A634"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3285" topLeftCell="A634" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K648" sqref="K648"/>
+      <selection pane="bottomLeft" activeCell="J648" sqref="J648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3975,7 +3975,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>73.154999999999973</v>
+        <v>74.404999999999973</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3985,7 +3985,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>155.375</v>
+        <v>155.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18235,13 +18235,15 @@
       <c r="B647" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C647" s="13"/>
+      <c r="C647" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D647" s="37"/>
       <c r="E647" s="9"/>
       <c r="F647" s="20"/>
-      <c r="G647" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G647" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H647" s="37">
         <v>1</v>
@@ -18253,8 +18255,12 @@
       </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A648" s="38"/>
-      <c r="B648" s="20"/>
+      <c r="A648" s="38">
+        <v>45108</v>
+      </c>
+      <c r="B648" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C648" s="13"/>
       <c r="D648" s="37"/>
       <c r="E648" s="9"/>
@@ -18263,10 +18269,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H648" s="37"/>
+      <c r="H648" s="37">
+        <v>1</v>
+      </c>
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
-      <c r="K648" s="20"/>
+      <c r="K648" s="46">
+        <v>45113</v>
+      </c>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="38"/>
